--- a/Code/Results/Cases/Case_0_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_157/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.67498966001827</v>
+        <v>4.612942462218352</v>
       </c>
       <c r="D2">
-        <v>5.29545816375931</v>
+        <v>8.083804492557505</v>
       </c>
       <c r="E2">
-        <v>7.821649661057087</v>
+        <v>12.77847057985256</v>
       </c>
       <c r="F2">
-        <v>25.44708392283817</v>
+        <v>36.4946390875902</v>
       </c>
       <c r="G2">
-        <v>31.35346520515247</v>
+        <v>41.0341322947306</v>
       </c>
       <c r="H2">
-        <v>10.64828420758618</v>
+        <v>17.3313590401117</v>
       </c>
       <c r="I2">
-        <v>17.54989080810274</v>
+        <v>25.60809687858471</v>
       </c>
       <c r="J2">
-        <v>5.638016395006419</v>
+        <v>9.944838780935042</v>
       </c>
       <c r="K2">
-        <v>20.86502684295379</v>
+        <v>15.9145656672906</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.10467759598333</v>
+        <v>17.955369247789</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.507879196851941</v>
+        <v>4.552621506933073</v>
       </c>
       <c r="D3">
-        <v>5.133568318840702</v>
+        <v>8.064612036372964</v>
       </c>
       <c r="E3">
-        <v>7.752074658243785</v>
+        <v>12.79880000593528</v>
       </c>
       <c r="F3">
-        <v>25.07428657799665</v>
+        <v>36.60589574905942</v>
       </c>
       <c r="G3">
-        <v>30.67814356860389</v>
+        <v>41.1566065400751</v>
       </c>
       <c r="H3">
-        <v>10.68913983112465</v>
+        <v>17.40635407738986</v>
       </c>
       <c r="I3">
-        <v>17.34050212324616</v>
+        <v>25.69531232492648</v>
       </c>
       <c r="J3">
-        <v>5.69792773350814</v>
+        <v>9.975467833173036</v>
       </c>
       <c r="K3">
-        <v>19.47690227633471</v>
+        <v>15.44305825294019</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.22656129952412</v>
+        <v>17.770164642657</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.402064343101256</v>
+        <v>4.514821498750857</v>
       </c>
       <c r="D4">
-        <v>5.032993638346112</v>
+        <v>8.053485507296664</v>
       </c>
       <c r="E4">
-        <v>7.713435976269382</v>
+        <v>12.81317503421434</v>
       </c>
       <c r="F4">
-        <v>24.87765563347677</v>
+        <v>36.68547063445276</v>
       </c>
       <c r="G4">
-        <v>30.31276121170062</v>
+        <v>41.2485431951707</v>
       </c>
       <c r="H4">
-        <v>10.72627795920783</v>
+        <v>17.45641433328324</v>
       </c>
       <c r="I4">
-        <v>17.23501763450106</v>
+        <v>25.75663094191937</v>
       </c>
       <c r="J4">
-        <v>5.737187921393005</v>
+        <v>9.995470777719611</v>
       </c>
       <c r="K4">
-        <v>18.57645671963706</v>
+        <v>15.1480008243316</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.66722483594047</v>
+        <v>17.65809833795838</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.358171076703292</v>
+        <v>4.499235483785327</v>
       </c>
       <c r="D5">
-        <v>4.991759194413397</v>
+        <v>8.049119075677567</v>
       </c>
       <c r="E5">
-        <v>7.698700649784533</v>
+        <v>12.81950889697689</v>
       </c>
       <c r="F5">
-        <v>24.80540012948875</v>
+        <v>36.720715838463</v>
       </c>
       <c r="G5">
-        <v>30.17597162638027</v>
+        <v>41.29018601417958</v>
       </c>
       <c r="H5">
-        <v>10.74428109989435</v>
+        <v>17.47782066553027</v>
       </c>
       <c r="I5">
-        <v>17.19762953643909</v>
+        <v>25.78356221524528</v>
       </c>
       <c r="J5">
-        <v>5.753795883835045</v>
+        <v>10.00392346337046</v>
       </c>
       <c r="K5">
-        <v>18.1973346322101</v>
+        <v>15.02654370509079</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.43441616666568</v>
+        <v>17.6128882148308</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.350837041879369</v>
+        <v>4.496636717536355</v>
       </c>
       <c r="D6">
-        <v>4.984898595009717</v>
+        <v>8.048404229086829</v>
       </c>
       <c r="E6">
-        <v>7.696314389774778</v>
+        <v>12.82058937330102</v>
       </c>
       <c r="F6">
-        <v>24.79387010352283</v>
+        <v>36.72673803108458</v>
       </c>
       <c r="G6">
-        <v>30.15397953353146</v>
+        <v>41.29735216674604</v>
       </c>
       <c r="H6">
-        <v>10.74743916048925</v>
+        <v>17.48143587320762</v>
       </c>
       <c r="I6">
-        <v>17.19175300126911</v>
+        <v>25.78815121451462</v>
       </c>
       <c r="J6">
-        <v>5.756590053634181</v>
+        <v>10.00534523740669</v>
       </c>
       <c r="K6">
-        <v>18.13364369094439</v>
+        <v>15.00630763613475</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.39547073091542</v>
+        <v>17.60540999583824</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.401475464022107</v>
+        <v>4.514612025229956</v>
       </c>
       <c r="D7">
-        <v>5.032438482844211</v>
+        <v>8.053425937964558</v>
       </c>
       <c r="E7">
-        <v>7.713233181842592</v>
+        <v>12.81325852796201</v>
       </c>
       <c r="F7">
-        <v>24.87664963054064</v>
+        <v>36.68593457409587</v>
       </c>
       <c r="G7">
-        <v>30.31086781971725</v>
+        <v>41.24908793102931</v>
       </c>
       <c r="H7">
-        <v>10.72650934915149</v>
+        <v>17.45669895546511</v>
       </c>
       <c r="I7">
-        <v>17.23449102554731</v>
+        <v>25.75698629102344</v>
       </c>
       <c r="J7">
-        <v>5.737409452256415</v>
+        <v>9.995583552975496</v>
       </c>
       <c r="K7">
-        <v>18.57139317589457</v>
+        <v>15.14636750349279</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.66410453904304</v>
+        <v>17.65748670875612</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.618054684762535</v>
+        <v>4.592307767990842</v>
       </c>
       <c r="D8">
-        <v>5.239908232400474</v>
+        <v>8.077051848738455</v>
       </c>
       <c r="E8">
-        <v>7.796804038698649</v>
+        <v>12.78508735064172</v>
       </c>
       <c r="F8">
-        <v>25.31170973158277</v>
+        <v>36.53065438885918</v>
       </c>
       <c r="G8">
-        <v>31.11023856973714</v>
+        <v>41.07286979629129</v>
       </c>
       <c r="H8">
-        <v>10.65977095435246</v>
+        <v>17.35638279228329</v>
       </c>
       <c r="I8">
-        <v>17.4727844096076</v>
+        <v>25.63655070334837</v>
       </c>
       <c r="J8">
-        <v>5.658151994957707</v>
+        <v>9.955151587603755</v>
       </c>
       <c r="K8">
-        <v>20.3963401371739</v>
+        <v>15.75324399747029</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.8061937117909</v>
+        <v>17.8911941795647</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.016074070260147</v>
+        <v>4.738210070220929</v>
       </c>
       <c r="D9">
-        <v>5.635666120987951</v>
+        <v>8.128495739926306</v>
       </c>
       <c r="E9">
-        <v>7.993734718251402</v>
+        <v>12.7448605613856</v>
       </c>
       <c r="F9">
-        <v>26.43028017364977</v>
+        <v>36.31612245361448</v>
       </c>
       <c r="G9">
-        <v>33.0782468126669</v>
+        <v>40.86137871086675</v>
       </c>
       <c r="H9">
-        <v>10.63199969597946</v>
+        <v>17.19162628952993</v>
       </c>
       <c r="I9">
-        <v>18.13153099897517</v>
+        <v>25.4624354709476</v>
       </c>
       <c r="J9">
-        <v>5.523019859705975</v>
+        <v>9.885339371930337</v>
       </c>
       <c r="K9">
-        <v>23.5972252088003</v>
+        <v>16.89216666656584</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.919255312197</v>
+        <v>18.3606725432843</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.290922167892491</v>
+        <v>4.840943009719735</v>
       </c>
       <c r="D10">
-        <v>5.91763927762303</v>
+        <v>8.169264149286295</v>
       </c>
       <c r="E10">
-        <v>8.159460217771812</v>
+        <v>12.72445788788957</v>
       </c>
       <c r="F10">
-        <v>27.42503205931111</v>
+        <v>36.21413088044881</v>
       </c>
       <c r="G10">
-        <v>34.77783545706478</v>
+        <v>40.78930838835527</v>
       </c>
       <c r="H10">
-        <v>10.68498812173874</v>
+        <v>17.09023172885264</v>
       </c>
       <c r="I10">
-        <v>18.74239466401439</v>
+        <v>25.37289533488156</v>
       </c>
       <c r="J10">
-        <v>5.4371403201895</v>
+        <v>9.839797198535418</v>
       </c>
       <c r="K10">
-        <v>25.72483445302915</v>
+        <v>17.68912136660019</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.54781324339438</v>
+        <v>18.709825257865</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.411958551771413</v>
+        <v>4.886605197147892</v>
       </c>
       <c r="D11">
-        <v>6.043680674313467</v>
+        <v>8.188423605501026</v>
       </c>
       <c r="E11">
-        <v>8.239611907521729</v>
+        <v>12.71716172007372</v>
       </c>
       <c r="F11">
-        <v>27.91711812763382</v>
+        <v>36.179957323652</v>
       </c>
       <c r="G11">
-        <v>35.60747228111629</v>
+        <v>40.77489541397744</v>
       </c>
       <c r="H11">
-        <v>10.72736972015062</v>
+        <v>17.0484076653595</v>
       </c>
       <c r="I11">
-        <v>19.04972171305723</v>
+        <v>25.34060262449167</v>
       </c>
       <c r="J11">
-        <v>5.401248812479627</v>
+        <v>9.820321552566803</v>
       </c>
       <c r="K11">
-        <v>26.64560757936625</v>
+        <v>18.04146817035956</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.25306918333231</v>
+        <v>18.86903072624208</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.457207929063204</v>
+        <v>4.903733807403236</v>
       </c>
       <c r="D12">
-        <v>6.091068161946555</v>
+        <v>8.195764106156254</v>
       </c>
       <c r="E12">
-        <v>8.270664001082602</v>
+        <v>12.71468403160888</v>
       </c>
       <c r="F12">
-        <v>28.10929555961282</v>
+        <v>36.16878468249028</v>
       </c>
       <c r="G12">
-        <v>35.92984840489578</v>
+        <v>40.77209827235728</v>
       </c>
       <c r="H12">
-        <v>10.74624345043721</v>
+        <v>17.03319141893156</v>
       </c>
       <c r="I12">
-        <v>19.17047142005008</v>
+        <v>25.32959568209164</v>
       </c>
       <c r="J12">
-        <v>5.388140122043815</v>
+        <v>9.813124788506954</v>
       </c>
       <c r="K12">
-        <v>26.98764562716994</v>
+        <v>18.17331366089158</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.51512421600845</v>
+        <v>18.92932567706474</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.44748877977695</v>
+        <v>4.900052222229425</v>
       </c>
       <c r="D13">
-        <v>6.080877892798932</v>
+        <v>8.194179456284933</v>
       </c>
       <c r="E13">
-        <v>8.263944965830774</v>
+        <v>12.71520496591781</v>
       </c>
       <c r="F13">
-        <v>28.06764489208214</v>
+        <v>36.17111211669978</v>
       </c>
       <c r="G13">
-        <v>35.86005226738757</v>
+        <v>40.77258208213338</v>
       </c>
       <c r="H13">
-        <v>10.742049864634</v>
+        <v>17.03644081293636</v>
       </c>
       <c r="I13">
-        <v>19.14426923332676</v>
+        <v>25.33191177196179</v>
       </c>
       <c r="J13">
-        <v>5.390941399265096</v>
+        <v>9.814666818069483</v>
       </c>
       <c r="K13">
-        <v>26.91427465307387</v>
+        <v>18.14499037810255</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.45890701333168</v>
+        <v>18.9163404895793</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.415693002961473</v>
+        <v>4.888017686214505</v>
       </c>
       <c r="D14">
-        <v>6.047586220521959</v>
+        <v>8.189025822341266</v>
       </c>
       <c r="E14">
-        <v>8.242152451547868</v>
+        <v>12.71695216473094</v>
       </c>
       <c r="F14">
-        <v>27.93281090952511</v>
+        <v>36.17900265134369</v>
       </c>
       <c r="G14">
-        <v>35.63382927046828</v>
+        <v>40.7746118691752</v>
       </c>
       <c r="H14">
-        <v>10.72886472559404</v>
+        <v>17.0471433393674</v>
       </c>
       <c r="I14">
-        <v>19.05956747724827</v>
+        <v>25.33967255026884</v>
       </c>
       <c r="J14">
-        <v>5.40016051946985</v>
+        <v>9.819725900035516</v>
       </c>
       <c r="K14">
-        <v>26.67387951017789</v>
+        <v>18.05234747226523</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.2747283776369</v>
+        <v>18.87399134598015</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.396140822508406</v>
+        <v>4.880624752603897</v>
       </c>
       <c r="D15">
-        <v>6.027149081693497</v>
+        <v>8.185880081280597</v>
       </c>
       <c r="E15">
-        <v>8.228895601196925</v>
+        <v>12.7180595090108</v>
       </c>
       <c r="F15">
-        <v>27.85098538555869</v>
+        <v>36.18406638869724</v>
       </c>
       <c r="G15">
-        <v>35.49633316852604</v>
+        <v>40.7762021864609</v>
       </c>
       <c r="H15">
-        <v>10.72116219281886</v>
+        <v>17.0537799926281</v>
       </c>
       <c r="I15">
-        <v>19.00825852832051</v>
+        <v>25.34458556725394</v>
       </c>
       <c r="J15">
-        <v>5.405871177064101</v>
+        <v>9.822847936732023</v>
       </c>
       <c r="K15">
-        <v>26.52577008970702</v>
+        <v>17.99539196691952</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.16126449089748</v>
+        <v>18.84805085355563</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.282930829405689</v>
+        <v>4.837936574254361</v>
       </c>
       <c r="D16">
-        <v>5.909355392463795</v>
+        <v>8.168024126785884</v>
       </c>
       <c r="E16">
-        <v>8.154319252053286</v>
+        <v>12.72497463581158</v>
       </c>
       <c r="F16">
-        <v>27.39368177686366</v>
+        <v>36.21661108224362</v>
       </c>
       <c r="G16">
-        <v>34.72476078463506</v>
+        <v>40.79062168496581</v>
       </c>
       <c r="H16">
-        <v>10.68260289879892</v>
+        <v>17.09305184426742</v>
       </c>
       <c r="I16">
-        <v>18.7229144842875</v>
+        <v>25.37517626361165</v>
       </c>
       <c r="J16">
-        <v>5.439551966999623</v>
+        <v>9.841094937006661</v>
       </c>
       <c r="K16">
-        <v>25.66372332379083</v>
+        <v>17.6658794817418</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.50101602492152</v>
+        <v>18.69942434528057</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.212448767080931</v>
+        <v>4.811468090554337</v>
       </c>
       <c r="D17">
-        <v>5.83650509508171</v>
+        <v>8.157225138735255</v>
       </c>
       <c r="E17">
-        <v>8.109799569874463</v>
+        <v>12.72972512477125</v>
       </c>
       <c r="F17">
-        <v>27.1233798075276</v>
+        <v>36.23971460377248</v>
       </c>
       <c r="G17">
-        <v>34.26595506618008</v>
+        <v>40.80418749674731</v>
       </c>
       <c r="H17">
-        <v>10.66376810460349</v>
+        <v>17.11824765467353</v>
       </c>
       <c r="I17">
-        <v>18.55550605743879</v>
+        <v>25.3961101309336</v>
       </c>
       <c r="J17">
-        <v>5.461044909206939</v>
+        <v>9.852606685617268</v>
       </c>
       <c r="K17">
-        <v>25.12291630349434</v>
+        <v>17.461038195777</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.08693469682016</v>
+        <v>18.60830934730537</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.1715338163845</v>
+        <v>4.796143750886503</v>
       </c>
       <c r="D18">
-        <v>5.794394598416098</v>
+        <v>8.151071796996966</v>
       </c>
       <c r="E18">
-        <v>8.084640301193339</v>
+        <v>12.73264434742073</v>
       </c>
       <c r="F18">
-        <v>26.97162545413139</v>
+        <v>36.25415305786064</v>
       </c>
       <c r="G18">
-        <v>34.00737391252381</v>
+        <v>40.81371852932051</v>
       </c>
       <c r="H18">
-        <v>10.65464319380587</v>
+        <v>17.1331442442377</v>
       </c>
       <c r="I18">
-        <v>18.46198069385988</v>
+        <v>25.40894466698188</v>
       </c>
       <c r="J18">
-        <v>5.473704242467892</v>
+        <v>9.85934483356303</v>
       </c>
       <c r="K18">
-        <v>24.80741782662241</v>
+        <v>17.34226568972562</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.84540995310503</v>
+        <v>18.55594037760781</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.157616598483907</v>
+        <v>4.790938221952295</v>
       </c>
       <c r="D19">
-        <v>5.780101550172129</v>
+        <v>8.148998424923946</v>
       </c>
       <c r="E19">
-        <v>8.076198168178038</v>
+        <v>12.73366484695297</v>
       </c>
       <c r="F19">
-        <v>26.92087781426957</v>
+        <v>36.25923883212719</v>
       </c>
       <c r="G19">
-        <v>33.9207324583374</v>
+        <v>40.81724179330855</v>
       </c>
       <c r="H19">
-        <v>10.65184112695895</v>
+        <v>17.13825737181601</v>
       </c>
       <c r="I19">
-        <v>18.43078495307693</v>
+        <v>25.41342632433785</v>
       </c>
       <c r="J19">
-        <v>5.478040770560203</v>
+        <v>9.861646341269841</v>
       </c>
       <c r="K19">
-        <v>24.69982892778464</v>
+        <v>17.30189134579463</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.76305428651199</v>
+        <v>18.53821709214794</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.219990656337421</v>
+        <v>4.814296156849137</v>
       </c>
       <c r="D20">
-        <v>5.844281926360022</v>
+        <v>8.158368733408114</v>
       </c>
       <c r="E20">
-        <v>8.114492365625752</v>
+        <v>12.72920008862405</v>
       </c>
       <c r="F20">
-        <v>27.15176824176007</v>
+        <v>36.237136102412</v>
       </c>
       <c r="G20">
-        <v>34.31424535178391</v>
+        <v>40.8025643703714</v>
       </c>
       <c r="H20">
-        <v>10.66559487661312</v>
+        <v>17.11552361737679</v>
       </c>
       <c r="I20">
-        <v>18.57303993868786</v>
+        <v>25.39379945625506</v>
       </c>
       <c r="J20">
-        <v>5.458726015223845</v>
+        <v>9.851369144490119</v>
       </c>
       <c r="K20">
-        <v>25.18094479230909</v>
+        <v>17.48294342576381</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.13136095859939</v>
+        <v>18.61800510377495</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.425048116917811</v>
+        <v>4.891557002542068</v>
       </c>
       <c r="D21">
-        <v>6.057374205676523</v>
+        <v>8.190537280887208</v>
       </c>
       <c r="E21">
-        <v>8.248534302708919</v>
+        <v>12.71643123181443</v>
       </c>
       <c r="F21">
-        <v>27.97225540510454</v>
+        <v>36.17663694499618</v>
       </c>
       <c r="G21">
-        <v>35.70005286970225</v>
+        <v>40.77394332473865</v>
       </c>
       <c r="H21">
-        <v>10.73265927771758</v>
+        <v>17.0439828522124</v>
       </c>
       <c r="I21">
-        <v>19.08432671613045</v>
+        <v>25.33735980679562</v>
       </c>
       <c r="J21">
-        <v>5.39743931856838</v>
+        <v>9.818235090113896</v>
       </c>
       <c r="K21">
-        <v>26.74466845743454</v>
+        <v>18.07960269401843</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.32896118844217</v>
+        <v>18.88643048540398</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.555656402862541</v>
+        <v>4.941099550592054</v>
       </c>
       <c r="D22">
-        <v>6.194644880403143</v>
+        <v>8.212056618369044</v>
       </c>
       <c r="E22">
-        <v>8.340229096234914</v>
+        <v>12.70974831585988</v>
       </c>
       <c r="F22">
-        <v>28.54257095567601</v>
+        <v>36.1474074125391</v>
       </c>
       <c r="G22">
-        <v>36.65366686660833</v>
+        <v>40.77075320930293</v>
       </c>
       <c r="H22">
-        <v>10.79304761755253</v>
+        <v>17.00085155425578</v>
       </c>
       <c r="I22">
-        <v>19.44402516723241</v>
+        <v>25.30759695443799</v>
       </c>
       <c r="J22">
-        <v>5.360212550812049</v>
+        <v>9.797618851279356</v>
       </c>
       <c r="K22">
-        <v>27.72802574755096</v>
+        <v>18.46029599154522</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.08251511835915</v>
+        <v>19.0618834453184</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.486262509631536</v>
+        <v>4.914747597882214</v>
       </c>
       <c r="D23">
-        <v>6.121569292123001</v>
+        <v>8.200527037897698</v>
       </c>
       <c r="E23">
-        <v>8.29091006955832</v>
+        <v>12.71316311506222</v>
       </c>
       <c r="F23">
-        <v>28.2350164893422</v>
+        <v>36.16206120506072</v>
       </c>
       <c r="G23">
-        <v>36.14028935733521</v>
+        <v>40.77103074110764</v>
       </c>
       <c r="H23">
-        <v>10.75923652286554</v>
+        <v>17.02353883505422</v>
       </c>
       <c r="I23">
-        <v>19.24966554818991</v>
+        <v>25.3228276457209</v>
       </c>
       <c r="J23">
-        <v>5.379813013472753</v>
+        <v>9.808527179668971</v>
       </c>
       <c r="K23">
-        <v>27.20667725123896</v>
+        <v>18.25799487877223</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.68295872033692</v>
+        <v>18.96825412035597</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.216582194209759</v>
+        <v>4.813017921497332</v>
       </c>
       <c r="D24">
-        <v>5.840766729105951</v>
+        <v>8.157851542295285</v>
       </c>
       <c r="E24">
-        <v>8.112369396748283</v>
+        <v>12.72943687152588</v>
       </c>
       <c r="F24">
-        <v>27.1389224855795</v>
+        <v>36.23829824289036</v>
       </c>
       <c r="G24">
-        <v>34.29239714701215</v>
+        <v>40.80329279244241</v>
       </c>
       <c r="H24">
-        <v>10.66476370193533</v>
+        <v>17.11675387398614</v>
       </c>
       <c r="I24">
-        <v>18.56510440932965</v>
+        <v>25.39484162277811</v>
       </c>
       <c r="J24">
-        <v>5.459773446108545</v>
+        <v>9.851928263346512</v>
       </c>
       <c r="K24">
-        <v>25.15472439217064</v>
+        <v>17.47304319752085</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.1112866428093</v>
+        <v>18.61362160429634</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.911409209454789</v>
+        <v>4.699486349150802</v>
       </c>
       <c r="D25">
-        <v>5.530018667693868</v>
+        <v>8.114045932914703</v>
       </c>
       <c r="E25">
-        <v>7.936827827450739</v>
+        <v>12.75413535074767</v>
       </c>
       <c r="F25">
-        <v>26.09802800912948</v>
+        <v>36.36444315203056</v>
       </c>
       <c r="G25">
-        <v>32.50182673298487</v>
+        <v>40.90406637710417</v>
       </c>
       <c r="H25">
-        <v>10.62740272892094</v>
+        <v>17.23275821184457</v>
       </c>
       <c r="I25">
-        <v>17.93171486547823</v>
+        <v>25.50283568547118</v>
       </c>
       <c r="J25">
-        <v>5.557305358933373</v>
+        <v>9.903213935334399</v>
       </c>
       <c r="K25">
-        <v>22.77113676822911</v>
+        <v>16.59047600354477</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.33706562479356</v>
+        <v>18.232736007618</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_157/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_157/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.612942462218352</v>
+        <v>4.674989660018565</v>
       </c>
       <c r="D2">
-        <v>8.083804492557505</v>
+        <v>5.295458163759221</v>
       </c>
       <c r="E2">
-        <v>12.77847057985256</v>
+        <v>7.82164966105703</v>
       </c>
       <c r="F2">
-        <v>36.4946390875902</v>
+        <v>25.44708392283806</v>
       </c>
       <c r="G2">
-        <v>41.0341322947306</v>
+        <v>31.35346520515244</v>
       </c>
       <c r="H2">
-        <v>17.3313590401117</v>
+        <v>10.64828420758614</v>
       </c>
       <c r="I2">
-        <v>25.60809687858471</v>
+        <v>17.54989080810264</v>
       </c>
       <c r="J2">
-        <v>9.944838780935042</v>
+        <v>5.638016395006386</v>
       </c>
       <c r="K2">
-        <v>15.9145656672906</v>
+        <v>20.86502684295379</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.955369247789</v>
+        <v>16.10467759598332</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.552621506933073</v>
+        <v>4.507879196852122</v>
       </c>
       <c r="D3">
-        <v>8.064612036372964</v>
+        <v>5.133568318840622</v>
       </c>
       <c r="E3">
-        <v>12.79880000593528</v>
+        <v>7.752074658243852</v>
       </c>
       <c r="F3">
-        <v>36.60589574905942</v>
+        <v>25.0742865779968</v>
       </c>
       <c r="G3">
-        <v>41.1566065400751</v>
+        <v>30.67814356860414</v>
       </c>
       <c r="H3">
-        <v>17.40635407738986</v>
+        <v>10.68913983112476</v>
       </c>
       <c r="I3">
-        <v>25.69531232492648</v>
+        <v>17.34050212324627</v>
       </c>
       <c r="J3">
-        <v>9.975467833173036</v>
+        <v>5.697927733508208</v>
       </c>
       <c r="K3">
-        <v>15.44305825294019</v>
+        <v>19.47690227633462</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.770164642657</v>
+        <v>15.22656129952417</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.514821498750857</v>
+        <v>4.402064343101453</v>
       </c>
       <c r="D4">
-        <v>8.053485507296664</v>
+        <v>5.032993638346069</v>
       </c>
       <c r="E4">
-        <v>12.81317503421434</v>
+        <v>7.71343597626938</v>
       </c>
       <c r="F4">
-        <v>36.68547063445276</v>
+        <v>24.87765563347668</v>
       </c>
       <c r="G4">
-        <v>41.2485431951707</v>
+        <v>30.31276121170049</v>
       </c>
       <c r="H4">
-        <v>17.45641433328324</v>
+        <v>10.72627795920778</v>
       </c>
       <c r="I4">
-        <v>25.75663094191937</v>
+        <v>17.23501763450095</v>
       </c>
       <c r="J4">
-        <v>9.995470777719611</v>
+        <v>5.737187921393098</v>
       </c>
       <c r="K4">
-        <v>15.1480008243316</v>
+        <v>18.57645671963705</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.65809833795838</v>
+        <v>14.66722483594046</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.499235483785327</v>
+        <v>4.358171076703493</v>
       </c>
       <c r="D5">
-        <v>8.049119075677567</v>
+        <v>4.9917591944133</v>
       </c>
       <c r="E5">
-        <v>12.81950889697689</v>
+        <v>7.698700649784539</v>
       </c>
       <c r="F5">
-        <v>36.720715838463</v>
+        <v>24.80540012948867</v>
       </c>
       <c r="G5">
-        <v>41.29018601417958</v>
+        <v>30.17597162638028</v>
       </c>
       <c r="H5">
-        <v>17.47782066553027</v>
+        <v>10.74428109989426</v>
       </c>
       <c r="I5">
-        <v>25.78356221524528</v>
+        <v>17.19762953643905</v>
       </c>
       <c r="J5">
-        <v>10.00392346337046</v>
+        <v>5.753795883835044</v>
       </c>
       <c r="K5">
-        <v>15.02654370509079</v>
+        <v>18.19733463221012</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.6128882148308</v>
+        <v>14.43441616666566</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.496636717536355</v>
+        <v>4.350837041879268</v>
       </c>
       <c r="D6">
-        <v>8.048404229086829</v>
+        <v>4.984898595009732</v>
       </c>
       <c r="E6">
-        <v>12.82058937330102</v>
+        <v>7.69631438977484</v>
       </c>
       <c r="F6">
-        <v>36.72673803108458</v>
+        <v>24.79387010352283</v>
       </c>
       <c r="G6">
-        <v>41.29735216674604</v>
+        <v>30.15397953353142</v>
       </c>
       <c r="H6">
-        <v>17.48143587320762</v>
+        <v>10.74743916048924</v>
       </c>
       <c r="I6">
-        <v>25.78815121451462</v>
+        <v>17.19175300126915</v>
       </c>
       <c r="J6">
-        <v>10.00534523740669</v>
+        <v>5.756590053634214</v>
       </c>
       <c r="K6">
-        <v>15.00630763613475</v>
+        <v>18.13364369094437</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.60540999583824</v>
+        <v>14.39547073091545</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.514612025229956</v>
+        <v>4.401475464022194</v>
       </c>
       <c r="D7">
-        <v>8.053425937964558</v>
+        <v>5.032438482844272</v>
       </c>
       <c r="E7">
-        <v>12.81325852796201</v>
+        <v>7.713233181842552</v>
       </c>
       <c r="F7">
-        <v>36.68593457409587</v>
+        <v>24.87664963054074</v>
       </c>
       <c r="G7">
-        <v>41.24908793102931</v>
+        <v>30.31086781971741</v>
       </c>
       <c r="H7">
-        <v>17.45669895546511</v>
+        <v>10.72650934915149</v>
       </c>
       <c r="I7">
-        <v>25.75698629102344</v>
+        <v>17.23449102554733</v>
       </c>
       <c r="J7">
-        <v>9.995583552975496</v>
+        <v>5.737409452256326</v>
       </c>
       <c r="K7">
-        <v>15.14636750349279</v>
+        <v>18.57139317589457</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.65748670875612</v>
+        <v>14.66410453904304</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.592307767990842</v>
+        <v>4.618054684762435</v>
       </c>
       <c r="D8">
-        <v>8.077051848738455</v>
+        <v>5.239908232400416</v>
       </c>
       <c r="E8">
-        <v>12.78508735064172</v>
+        <v>7.796804038698737</v>
       </c>
       <c r="F8">
-        <v>36.53065438885918</v>
+        <v>25.31170973158277</v>
       </c>
       <c r="G8">
-        <v>41.07286979629129</v>
+        <v>31.11023856973714</v>
       </c>
       <c r="H8">
-        <v>17.35638279228329</v>
+        <v>10.65977095435245</v>
       </c>
       <c r="I8">
-        <v>25.63655070334837</v>
+        <v>17.47278440960763</v>
       </c>
       <c r="J8">
-        <v>9.955151587603755</v>
+        <v>5.658151994957763</v>
       </c>
       <c r="K8">
-        <v>15.75324399747029</v>
+        <v>20.39634013717392</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.8911941795647</v>
+        <v>15.80619371179091</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.738210070220929</v>
+        <v>5.016074070260347</v>
       </c>
       <c r="D9">
-        <v>8.128495739926306</v>
+        <v>5.635666120987945</v>
       </c>
       <c r="E9">
-        <v>12.7448605613856</v>
+        <v>7.993734718251357</v>
       </c>
       <c r="F9">
-        <v>36.31612245361448</v>
+        <v>26.43028017364986</v>
       </c>
       <c r="G9">
-        <v>40.86137871086675</v>
+        <v>33.0782468126669</v>
       </c>
       <c r="H9">
-        <v>17.19162628952993</v>
+        <v>10.63199969597953</v>
       </c>
       <c r="I9">
-        <v>25.4624354709476</v>
+        <v>18.1315309989752</v>
       </c>
       <c r="J9">
-        <v>9.885339371930337</v>
+        <v>5.523019859705915</v>
       </c>
       <c r="K9">
-        <v>16.89216666656584</v>
+        <v>23.59722520880022</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.3606725432843</v>
+        <v>17.91925531219697</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.840943009719735</v>
+        <v>5.290922167892491</v>
       </c>
       <c r="D10">
-        <v>8.169264149286295</v>
+        <v>5.91763927762303</v>
       </c>
       <c r="E10">
-        <v>12.72445788788957</v>
+        <v>8.159460217771722</v>
       </c>
       <c r="F10">
-        <v>36.21413088044881</v>
+        <v>27.42503205931119</v>
       </c>
       <c r="G10">
-        <v>40.78930838835527</v>
+        <v>34.7778354570648</v>
       </c>
       <c r="H10">
-        <v>17.09023172885264</v>
+        <v>10.68498812173885</v>
       </c>
       <c r="I10">
-        <v>25.37289533488156</v>
+        <v>18.74239466401444</v>
       </c>
       <c r="J10">
-        <v>9.839797198535418</v>
+        <v>5.437140320189439</v>
       </c>
       <c r="K10">
-        <v>17.68912136660019</v>
+        <v>25.72483445302909</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.709825257865</v>
+        <v>19.54781324339436</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.886605197147892</v>
+        <v>5.411958551771407</v>
       </c>
       <c r="D11">
-        <v>8.188423605501026</v>
+        <v>6.043680674313454</v>
       </c>
       <c r="E11">
-        <v>12.71716172007372</v>
+        <v>8.239611907521729</v>
       </c>
       <c r="F11">
-        <v>36.179957323652</v>
+        <v>27.9171181276338</v>
       </c>
       <c r="G11">
-        <v>40.77489541397744</v>
+        <v>35.60747228111627</v>
       </c>
       <c r="H11">
-        <v>17.0484076653595</v>
+        <v>10.72736972015062</v>
       </c>
       <c r="I11">
-        <v>25.34060262449167</v>
+        <v>19.04972171305722</v>
       </c>
       <c r="J11">
-        <v>9.820321552566803</v>
+        <v>5.40124881247963</v>
       </c>
       <c r="K11">
-        <v>18.04146817035956</v>
+        <v>26.64560757936625</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.86903072624208</v>
+        <v>20.25306918333231</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.903733807403236</v>
+        <v>5.457207929062968</v>
       </c>
       <c r="D12">
-        <v>8.195764106156254</v>
+        <v>6.091068161946611</v>
       </c>
       <c r="E12">
-        <v>12.71468403160888</v>
+        <v>8.270664001082604</v>
       </c>
       <c r="F12">
-        <v>36.16878468249028</v>
+        <v>28.10929555961278</v>
       </c>
       <c r="G12">
-        <v>40.77209827235728</v>
+        <v>35.92984840489567</v>
       </c>
       <c r="H12">
-        <v>17.03319141893156</v>
+        <v>10.74624345043719</v>
       </c>
       <c r="I12">
-        <v>25.32959568209164</v>
+        <v>19.17047142005008</v>
       </c>
       <c r="J12">
-        <v>9.813124788506954</v>
+        <v>5.388140122043779</v>
       </c>
       <c r="K12">
-        <v>18.17331366089158</v>
+        <v>26.98764562716994</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.92932567706474</v>
+        <v>20.51512421600845</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.900052222229425</v>
+        <v>5.447488779777037</v>
       </c>
       <c r="D13">
-        <v>8.194179456284933</v>
+        <v>6.080877892798849</v>
       </c>
       <c r="E13">
-        <v>12.71520496591781</v>
+        <v>8.263944965830813</v>
       </c>
       <c r="F13">
-        <v>36.17111211669978</v>
+        <v>28.06764489208219</v>
       </c>
       <c r="G13">
-        <v>40.77258208213338</v>
+        <v>35.86005226738761</v>
       </c>
       <c r="H13">
-        <v>17.03644081293636</v>
+        <v>10.74204986463403</v>
       </c>
       <c r="I13">
-        <v>25.33191177196179</v>
+        <v>19.14426923332682</v>
       </c>
       <c r="J13">
-        <v>9.814666818069483</v>
+        <v>5.390941399265161</v>
       </c>
       <c r="K13">
-        <v>18.14499037810255</v>
+        <v>26.91427465307387</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.9163404895793</v>
+        <v>20.45890701333166</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.888017686214505</v>
+        <v>5.415693002961466</v>
       </c>
       <c r="D14">
-        <v>8.189025822341266</v>
+        <v>6.047586220521853</v>
       </c>
       <c r="E14">
-        <v>12.71695216473094</v>
+        <v>8.242152451547812</v>
       </c>
       <c r="F14">
-        <v>36.17900265134369</v>
+        <v>27.93281090952516</v>
       </c>
       <c r="G14">
-        <v>40.7746118691752</v>
+        <v>35.63382927046835</v>
       </c>
       <c r="H14">
-        <v>17.0471433393674</v>
+        <v>10.72886472559407</v>
       </c>
       <c r="I14">
-        <v>25.33967255026884</v>
+        <v>19.05956747724832</v>
       </c>
       <c r="J14">
-        <v>9.819725900035516</v>
+        <v>5.400160519469846</v>
       </c>
       <c r="K14">
-        <v>18.05234747226523</v>
+        <v>26.67387951017787</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.87399134598015</v>
+        <v>20.27472837763689</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.880624752603897</v>
+        <v>5.396140822508419</v>
       </c>
       <c r="D15">
-        <v>8.185880081280597</v>
+        <v>6.027149081693446</v>
       </c>
       <c r="E15">
-        <v>12.7180595090108</v>
+        <v>8.228895601196944</v>
       </c>
       <c r="F15">
-        <v>36.18406638869724</v>
+        <v>27.85098538555858</v>
       </c>
       <c r="G15">
-        <v>40.7762021864609</v>
+        <v>35.49633316852596</v>
       </c>
       <c r="H15">
-        <v>17.0537799926281</v>
+        <v>10.7211621928188</v>
       </c>
       <c r="I15">
-        <v>25.34458556725394</v>
+        <v>19.00825852832045</v>
       </c>
       <c r="J15">
-        <v>9.822847936732023</v>
+        <v>5.405871177064129</v>
       </c>
       <c r="K15">
-        <v>17.99539196691952</v>
+        <v>26.52577008970705</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.84805085355563</v>
+        <v>20.16126449089749</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.837936574254361</v>
+        <v>5.282930829405683</v>
       </c>
       <c r="D16">
-        <v>8.168024126785884</v>
+        <v>5.909355392463818</v>
       </c>
       <c r="E16">
-        <v>12.72497463581158</v>
+        <v>8.15431925205324</v>
       </c>
       <c r="F16">
-        <v>36.21661108224362</v>
+        <v>27.39368177686369</v>
       </c>
       <c r="G16">
-        <v>40.79062168496581</v>
+        <v>34.72476078463506</v>
       </c>
       <c r="H16">
-        <v>17.09305184426742</v>
+        <v>10.68260289879892</v>
       </c>
       <c r="I16">
-        <v>25.37517626361165</v>
+        <v>18.7229144842875</v>
       </c>
       <c r="J16">
-        <v>9.841094937006661</v>
+        <v>5.439551966999531</v>
       </c>
       <c r="K16">
-        <v>17.6658794817418</v>
+        <v>25.66372332379083</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.69942434528057</v>
+        <v>19.50101602492153</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.811468090554337</v>
+        <v>5.212448767080456</v>
       </c>
       <c r="D17">
-        <v>8.157225138735255</v>
+        <v>5.836505095081699</v>
       </c>
       <c r="E17">
-        <v>12.72972512477125</v>
+        <v>8.109799569874548</v>
       </c>
       <c r="F17">
-        <v>36.23971460377248</v>
+        <v>27.12337980752747</v>
       </c>
       <c r="G17">
-        <v>40.80418749674731</v>
+        <v>34.26595506617992</v>
       </c>
       <c r="H17">
-        <v>17.11824765467353</v>
+        <v>10.66376810460341</v>
       </c>
       <c r="I17">
-        <v>25.3961101309336</v>
+        <v>18.55550605743877</v>
       </c>
       <c r="J17">
-        <v>9.852606685617268</v>
+        <v>5.461044909207026</v>
       </c>
       <c r="K17">
-        <v>17.461038195777</v>
+        <v>25.12291630349439</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.60830934730537</v>
+        <v>19.08693469682016</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.796143750886503</v>
+        <v>5.171533816384375</v>
       </c>
       <c r="D18">
-        <v>8.151071796996966</v>
+        <v>5.794394598416204</v>
       </c>
       <c r="E18">
-        <v>12.73264434742073</v>
+        <v>8.08464030119339</v>
       </c>
       <c r="F18">
-        <v>36.25415305786064</v>
+        <v>26.97162545413143</v>
       </c>
       <c r="G18">
-        <v>40.81371852932051</v>
+        <v>34.00737391252379</v>
       </c>
       <c r="H18">
-        <v>17.1331442442377</v>
+        <v>10.65464319380587</v>
       </c>
       <c r="I18">
-        <v>25.40894466698188</v>
+        <v>18.46198069385987</v>
       </c>
       <c r="J18">
-        <v>9.85934483356303</v>
+        <v>5.473704242467807</v>
       </c>
       <c r="K18">
-        <v>17.34226568972562</v>
+        <v>24.80741782662243</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.55594037760781</v>
+        <v>18.84540995310503</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.790938221952295</v>
+        <v>5.157616598484103</v>
       </c>
       <c r="D19">
-        <v>8.148998424923946</v>
+        <v>5.780101550172089</v>
       </c>
       <c r="E19">
-        <v>12.73366484695297</v>
+        <v>8.076198168177983</v>
       </c>
       <c r="F19">
-        <v>36.25923883212719</v>
+        <v>26.92087781426959</v>
       </c>
       <c r="G19">
-        <v>40.81724179330855</v>
+        <v>33.92073245833743</v>
       </c>
       <c r="H19">
-        <v>17.13825737181601</v>
+        <v>10.65184112695898</v>
       </c>
       <c r="I19">
-        <v>25.41342632433785</v>
+        <v>18.43078495307695</v>
       </c>
       <c r="J19">
-        <v>9.861646341269841</v>
+        <v>5.478040770560198</v>
       </c>
       <c r="K19">
-        <v>17.30189134579463</v>
+        <v>24.6998289277846</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.53821709214794</v>
+        <v>18.76305428651197</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.814296156849137</v>
+        <v>5.219990656337427</v>
       </c>
       <c r="D20">
-        <v>8.158368733408114</v>
+        <v>5.844281926360036</v>
       </c>
       <c r="E20">
-        <v>12.72920008862405</v>
+        <v>8.114492365625804</v>
       </c>
       <c r="F20">
-        <v>36.237136102412</v>
+        <v>27.15176824175993</v>
       </c>
       <c r="G20">
-        <v>40.8025643703714</v>
+        <v>34.31424535178378</v>
       </c>
       <c r="H20">
-        <v>17.11552361737679</v>
+        <v>10.66559487661305</v>
       </c>
       <c r="I20">
-        <v>25.39379945625506</v>
+        <v>18.57303993868775</v>
       </c>
       <c r="J20">
-        <v>9.851369144490119</v>
+        <v>5.458726015223816</v>
       </c>
       <c r="K20">
-        <v>17.48294342576381</v>
+        <v>25.18094479230914</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.61800510377495</v>
+        <v>19.13136095859944</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.891557002542068</v>
+        <v>5.425048116917805</v>
       </c>
       <c r="D21">
-        <v>8.190537280887208</v>
+        <v>6.057374205676481</v>
       </c>
       <c r="E21">
-        <v>12.71643123181443</v>
+        <v>8.248534302708883</v>
       </c>
       <c r="F21">
-        <v>36.17663694499618</v>
+        <v>27.97225540510457</v>
       </c>
       <c r="G21">
-        <v>40.77394332473865</v>
+        <v>35.7000528697023</v>
       </c>
       <c r="H21">
-        <v>17.0439828522124</v>
+        <v>10.73265927771759</v>
       </c>
       <c r="I21">
-        <v>25.33735980679562</v>
+        <v>19.08432671613046</v>
       </c>
       <c r="J21">
-        <v>9.818235090113896</v>
+        <v>5.397439318568357</v>
       </c>
       <c r="K21">
-        <v>18.07960269401843</v>
+        <v>26.74466845743454</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.88643048540398</v>
+        <v>20.32896118844219</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.941099550592054</v>
+        <v>5.555656402862442</v>
       </c>
       <c r="D22">
-        <v>8.212056618369044</v>
+        <v>6.194644880403089</v>
       </c>
       <c r="E22">
-        <v>12.70974831585988</v>
+        <v>8.340229096234966</v>
       </c>
       <c r="F22">
-        <v>36.1474074125391</v>
+        <v>28.542570955676</v>
       </c>
       <c r="G22">
-        <v>40.77075320930293</v>
+        <v>36.65366686660831</v>
       </c>
       <c r="H22">
-        <v>17.00085155425578</v>
+        <v>10.79304761755257</v>
       </c>
       <c r="I22">
-        <v>25.30759695443799</v>
+        <v>19.44402516723241</v>
       </c>
       <c r="J22">
-        <v>9.797618851279356</v>
+        <v>5.360212550812137</v>
       </c>
       <c r="K22">
-        <v>18.46029599154522</v>
+        <v>27.72802574755094</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.0618834453184</v>
+        <v>21.08251511835914</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.914747597882214</v>
+        <v>5.48626250963153</v>
       </c>
       <c r="D23">
-        <v>8.200527037897698</v>
+        <v>6.121569292122973</v>
       </c>
       <c r="E23">
-        <v>12.71316311506222</v>
+        <v>8.290910069558349</v>
       </c>
       <c r="F23">
-        <v>36.16206120506072</v>
+        <v>28.23501648934223</v>
       </c>
       <c r="G23">
-        <v>40.77103074110764</v>
+        <v>36.14028935733531</v>
       </c>
       <c r="H23">
-        <v>17.02353883505422</v>
+        <v>10.75923652286554</v>
       </c>
       <c r="I23">
-        <v>25.3228276457209</v>
+        <v>19.24966554818995</v>
       </c>
       <c r="J23">
-        <v>9.808527179668971</v>
+        <v>5.379813013472811</v>
       </c>
       <c r="K23">
-        <v>18.25799487877223</v>
+        <v>27.20667725123891</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.96825412035597</v>
+        <v>20.68295872033688</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.813017921497332</v>
+        <v>5.216582194209706</v>
       </c>
       <c r="D24">
-        <v>8.157851542295285</v>
+        <v>5.840766729105945</v>
       </c>
       <c r="E24">
-        <v>12.72943687152588</v>
+        <v>8.112369396748194</v>
       </c>
       <c r="F24">
-        <v>36.23829824289036</v>
+        <v>27.13892248557937</v>
       </c>
       <c r="G24">
-        <v>40.80329279244241</v>
+        <v>34.292397147012</v>
       </c>
       <c r="H24">
-        <v>17.11675387398614</v>
+        <v>10.66476370193532</v>
       </c>
       <c r="I24">
-        <v>25.39484162277811</v>
+        <v>18.56510440932958</v>
       </c>
       <c r="J24">
-        <v>9.851928263346512</v>
+        <v>5.459773446108492</v>
       </c>
       <c r="K24">
-        <v>17.47304319752085</v>
+        <v>25.15472439217072</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.61362160429634</v>
+        <v>19.11128664280935</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.699486349150802</v>
+        <v>4.911409209454872</v>
       </c>
       <c r="D25">
-        <v>8.114045932914703</v>
+        <v>5.530018667693864</v>
       </c>
       <c r="E25">
-        <v>12.75413535074767</v>
+        <v>7.936827827450752</v>
       </c>
       <c r="F25">
-        <v>36.36444315203056</v>
+        <v>26.09802800912934</v>
       </c>
       <c r="G25">
-        <v>40.90406637710417</v>
+        <v>32.50182673298483</v>
       </c>
       <c r="H25">
-        <v>17.23275821184457</v>
+        <v>10.62740272892086</v>
       </c>
       <c r="I25">
-        <v>25.50283568547118</v>
+        <v>17.9317148654781</v>
       </c>
       <c r="J25">
-        <v>9.903213935334399</v>
+        <v>5.557305358933349</v>
       </c>
       <c r="K25">
-        <v>16.59047600354477</v>
+        <v>22.77113676822914</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.232736007618</v>
+        <v>17.33706562479354</v>
       </c>
       <c r="N25">
         <v>0</v>
